--- a/Material Management/Epic_material_management.xlsx
+++ b/Material Management/Epic_material_management.xlsx
@@ -4,10 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1、电容、电阻、电感" sheetId="1" r:id="rId1"/>
+    <sheet name="2、IC chips" sheetId="2" r:id="rId2"/>
+    <sheet name="3、连接器" sheetId="3" r:id="rId3"/>
+    <sheet name="4、硬件设备" sheetId="4" r:id="rId4"/>
+    <sheet name="5、焊接完成的嵌入式设备" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +22,290 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+  <si>
+    <t>电容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电容值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装/尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原有库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人：唐袁、吴高翔、瞿荣辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100pF25V / 101J25V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、电容和电阻，不用数具体数量，直接以多少来评价；
+2、常用的电阻，直接购买电阻盘；
+3、电容较贵，每次的数量基本是50颗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2KΩ 1% / 202 1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>less</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>more</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EPIC 物料管理清单/电容/电阻/电感 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2018/10/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADS1299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EPIC 物料管理清单/IC </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADS1299-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADS1299-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADS1299-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAG (S-PQFP-G64)</t>
+  </si>
+  <si>
+    <t>PAG (S-PQFP-G65)</t>
+  </si>
+  <si>
+    <t>PAG (S-PQFP-G66)</t>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADS1299来源于TI申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EPIC 物料管理清单/连接器 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：相关芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：相关的接插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 Pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨动开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单排排针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双排排针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：相关硬件设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊台热风枪一体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：焊接完成的嵌入式设备，可用和不可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEG 1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊接数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>损坏数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEG 1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPIC 物料管理清单/硬件设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EPIC 物料管理清单/嵌入式设备 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,11 +328,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +402,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +447,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +482,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +664,1143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="13"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="H5:H22"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B4:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="13.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <f>E5-F5</f>
+        <v>5</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="14"/>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="14"/>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="13"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" s="7" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5">
+        <f>E5-F5</f>
+        <v>10</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B14:B22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="13.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A3:XFD3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" activeCellId="1" sqref="A1:H1 F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <f>E5-F5</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:XFD3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>